--- a/勤怠管理表_7月28日15時締切.xlsx
+++ b/勤怠管理表_7月28日15時締切.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>昼休憩</t>
     <rPh sb="0" eb="1">
@@ -163,23 +163,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3日休可能</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>32:30:00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>24:00:00</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -242,6 +225,18 @@
     <rPh sb="0" eb="2">
       <t>ネンキュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>34:30:00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10:30まで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9:45まで</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -384,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +452,15 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,13 +494,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,27 +1262,27 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="31"/>
+      <c r="E3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
@@ -1305,8 +1309,8 @@
         <f t="shared" ref="H4:H10" si="0">G4-(F4-E4)-D4</f>
         <v>0.30208333333333337</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
@@ -1322,8 +1326,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
@@ -1350,8 +1354,8 @@
         <f t="shared" si="0"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
@@ -1378,8 +1382,8 @@
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
@@ -1406,8 +1410,8 @@
         <f t="shared" si="0"/>
         <v>0.36458333333333343</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
@@ -1434,8 +1438,8 @@
         <f t="shared" si="0"/>
         <v>0.35416666666666669</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
@@ -1462,8 +1466,8 @@
         <f t="shared" si="0"/>
         <v>0.39583333333333343</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
@@ -1479,8 +1483,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
@@ -1496,8 +1500,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
@@ -1524,8 +1528,8 @@
         <f t="shared" ref="H13:H17" si="3">G13-(F13-E13)-D13</f>
         <v>0.46875000000000006</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="6">
@@ -1552,8 +1556,8 @@
         <f t="shared" si="3"/>
         <v>0.45833333333333343</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="6">
@@ -1580,12 +1584,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="27"/>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -1597,8 +1601,8 @@
         <f t="shared" si="2"/>
         <v>45120</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.36458333333333331</v>
+      <c r="D16" s="26">
+        <v>0.35416666666666669</v>
       </c>
       <c r="E16" s="1">
         <v>0.5</v>
@@ -1611,10 +1615,10 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
@@ -1641,8 +1645,8 @@
         <f t="shared" si="3"/>
         <v>0.36458333333333343</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6">
@@ -1658,8 +1662,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6">
@@ -1675,8 +1679,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -1703,10 +1707,10 @@
         <f t="shared" ref="H20:H21" si="4">G20-(F20-E20)-D20</f>
         <v>0.53125</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
@@ -1721,20 +1725,22 @@
         <v>0.8125</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="4"/>
         <v>0.55208333333333326</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
@@ -1749,20 +1755,22 @@
         <v>0.8125</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ref="H22:H23" si="5">G22-(F22-E22)-D22</f>
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
@@ -1783,14 +1791,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
@@ -1817,10 +1825,10 @@
         <f t="shared" ref="H24" si="6">G24-(F24-E24)-D24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="24"/>
+      <c r="I24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="6">
@@ -1836,8 +1844,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="6">
@@ -1853,8 +1861,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="6">
@@ -1875,16 +1883,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G27" s="10">
-        <v>0.80208333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27:H31" si="7">G27-(F27-E27)-D27</f>
-        <v>0.39583333333333343</v>
-      </c>
-      <c r="I27" s="32">
+        <v>0.40625000000000006</v>
+      </c>
+      <c r="I27" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
@@ -1905,16 +1913,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G28" s="10">
-        <v>0.80208333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="7"/>
-        <v>0.39583333333333343</v>
-      </c>
-      <c r="I28" s="32">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J28" s="33"/>
+        <v>0.36458333333333343</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="6">
@@ -1941,10 +1947,10 @@
         <f t="shared" si="7"/>
         <v>0.39583333333333343</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="6">
@@ -1971,10 +1977,10 @@
         <f t="shared" si="7"/>
         <v>0.39583333333333343</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="6">
@@ -2001,8 +2007,8 @@
         <f t="shared" si="7"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="6">
@@ -2018,8 +2024,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="6">
@@ -2035,8 +2041,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
@@ -2063,10 +2069,10 @@
         <f t="shared" ref="H34" si="9">G34-(F34-E34)-D34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="24"/>
+      <c r="I34" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="27"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F36" s="3" t="s">
@@ -2075,7 +2081,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f>SUM(H4:H34)</f>
-        <v>7.5729166666666652</v>
+        <v>7.645833333333333</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
@@ -2083,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2131,58 +2137,63 @@
     <mergeCell ref="I20:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B4:H5 B6:F6 H6 B10:H15 B9:C9 H9 B7:H8 E9:F9 B20:C23 F23 H23 B24:H33 B17:H19 B16:F16 H16">
-    <cfRule type="expression" dxfId="40" priority="12">
+  <conditionalFormatting sqref="B4:H5 B6:F6 H6 B10:H15 B9:C9 H9 B7:H8 E9:F9 B20:C23 F23 H23 B24:H33 B17:H19 B16:C16 H16 E16:F16">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>NETWORKDAYS.INTL($B4,$B4,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="39" priority="12">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H34">
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>NETWORKDAYS.INTL($B6,$B6,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="36" priority="8">
       <formula>NETWORKDAYS.INTL($B9,$B9,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="35" priority="6">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>NETWORKDAYS.INTL($B9,$B9,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>NETWORKDAYS.INTL($B20,$B20,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:H22 D23">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>NETWORKDAYS.INTL($B21,$B21,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>NETWORKDAYS.INTL($B23,$B23,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>NETWORKDAYS.INTL($B23,$B23,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>NETWORKDAYS.INTL($B16,$B16,1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>NETWORKDAYS.INTL($B16,$B16,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2195,7 +2206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2220,27 +2233,27 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="31"/>
+      <c r="E3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
@@ -2256,8 +2269,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
@@ -2273,8 +2286,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
@@ -2295,16 +2308,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G6" s="10">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" ref="H6:H10" si="2">G6-(F6-E6)-D6</f>
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="I6" s="35" t="s">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
@@ -2331,8 +2344,8 @@
         <f t="shared" si="2"/>
         <v>0.46875000000000006</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
@@ -2359,8 +2372,8 @@
         <f t="shared" si="2"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
@@ -2387,8 +2400,8 @@
         <f t="shared" si="2"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
@@ -2415,8 +2428,8 @@
         <f t="shared" si="2"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
@@ -2432,8 +2445,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
@@ -2449,8 +2462,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
@@ -2477,8 +2490,8 @@
         <f t="shared" ref="H13:H17" si="3">G13-(F13-E13)-D13</f>
         <v>0.46875000000000006</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="6">
@@ -2505,8 +2518,8 @@
         <f t="shared" si="3"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="6">
@@ -2533,8 +2546,8 @@
         <f t="shared" si="3"/>
         <v>0.52083333333333326</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="6">
@@ -2555,16 +2568,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G16" s="22">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="I16" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="37">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
@@ -2591,10 +2604,10 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333343</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="37">
         <v>3.125E-2</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6">
@@ -2610,8 +2623,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6">
@@ -2627,8 +2640,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -2655,10 +2668,10 @@
         <f t="shared" ref="H20:H24" si="4">G20-(F20-E20)-D20</f>
         <v>0.52083333333333348</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
@@ -2685,8 +2698,8 @@
         <f t="shared" si="4"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
@@ -2713,8 +2726,8 @@
         <f t="shared" si="4"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
@@ -2741,10 +2754,10 @@
         <f t="shared" si="4"/>
         <v>0.37500000000000006</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="38">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
@@ -2771,10 +2784,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="24"/>
+      <c r="I24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="6">
@@ -2790,8 +2803,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="6">
@@ -2807,8 +2820,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="6">
@@ -2829,14 +2842,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G27" s="10">
-        <v>0.71875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27:H30" si="5">G27-(F27-E27)-D27</f>
-        <v>0.31250000000000006</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
@@ -2863,8 +2876,8 @@
         <f t="shared" si="5"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="6">
@@ -2875,26 +2888,26 @@
         <f t="shared" si="1"/>
         <v>45133</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
         <v>0</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I29" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="24"/>
+      <c r="I29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="6">
@@ -2921,8 +2934,8 @@
         <f t="shared" si="5"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="6">
@@ -2949,10 +2962,10 @@
         <f t="shared" ref="H31" si="6">G31-(F31-E31)-D31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="24"/>
+      <c r="I31" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="6">
@@ -2968,8 +2981,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="6">
@@ -2985,8 +2998,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
@@ -3013,8 +3026,8 @@
         <f t="shared" ref="H34" si="7">G34-(F34-E34)-D34</f>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F36" s="3" t="s">
@@ -3023,10 +3036,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f>SUM(H4:H34)</f>
-        <v>6.854166666666667</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
+        <v>6.8854166666666679</v>
       </c>
       <c r="J36" s="19"/>
     </row>
@@ -3077,58 +3087,58 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B32:H33 B31:C31 H31 B4:H13 B16:F17 H16:H17 B15:H15 B14:F14 H14 B18:H23 B25:H28 B24:C24 B30:H30 B29:C29">
-    <cfRule type="expression" dxfId="30" priority="11">
+    <cfRule type="expression" dxfId="28" priority="14">
       <formula>NETWORKDAYS.INTL($B4,$B4,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H34">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:G31">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>NETWORKDAYS.INTL($B31,$B31,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>NETWORKDAYS.INTL($B17,$B17,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>NETWORKDAYS.INTL($B14,$B14,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="24" priority="5">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>NETWORKDAYS.INTL($B24,$B24,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:G24">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>NETWORKDAYS.INTL($B24,$B24,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>NETWORKDAYS.INTL($B29,$B29,1)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:G29">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>NETWORKDAYS.INTL($B29,$B29,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>NETWORKDAYS.INTL($B16,$B16,1)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:G29">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>NETWORKDAYS.INTL($B29,$B29,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3140,7 +3150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3165,27 +3177,27 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="31"/>
+      <c r="E3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="6">
@@ -3201,8 +3213,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="6">
@@ -3218,8 +3230,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="6">
@@ -3246,8 +3258,8 @@
         <f t="shared" ref="H6:H10" si="2">G6-(F6-E6)-D6</f>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="6">
@@ -3274,8 +3286,8 @@
         <f t="shared" si="2"/>
         <v>0.46875000000000006</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6">
@@ -3302,8 +3314,8 @@
         <f t="shared" si="2"/>
         <v>0.36458333333333343</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="6">
@@ -3330,8 +3342,8 @@
         <f t="shared" si="2"/>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6">
@@ -3358,8 +3370,8 @@
         <f t="shared" si="2"/>
         <v>0.39583333333333343</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="6">
@@ -3375,8 +3387,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="6">
@@ -3392,8 +3404,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="6">
@@ -3420,8 +3432,8 @@
         <f t="shared" ref="H13:H19" si="3">G13-(F13-E13)-D13</f>
         <v>0.46875000000000006</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="6">
@@ -3448,8 +3460,8 @@
         <f t="shared" si="3"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="6">
@@ -3476,8 +3488,8 @@
         <f t="shared" si="3"/>
         <v>0.52083333333333326</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="6">
@@ -3504,8 +3516,8 @@
         <f t="shared" si="3"/>
         <v>0.48958333333333331</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="6">
@@ -3532,8 +3544,8 @@
         <f t="shared" si="3"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="6">
@@ -3549,8 +3561,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="6">
@@ -3565,22 +3577,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
         <v>0.48958333333333315</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="24"/>
+      <c r="I19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
@@ -3596,10 +3608,10 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="6">
@@ -3626,8 +3638,8 @@
         <f t="shared" ref="H21" si="4">G21-(F21-E21)-D21</f>
         <v>0.44791666666666669</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="6">
@@ -3654,8 +3666,8 @@
         <f t="shared" ref="H22:H23" si="5">G22-(F22-E22)-D22</f>
         <v>0.34375000000000006</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="6">
@@ -3682,8 +3694,8 @@
         <f t="shared" si="5"/>
         <v>0.45833333333333343</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="6">
@@ -3710,10 +3722,10 @@
         <f t="shared" ref="H24" si="6">G24-(F24-E24)-D24</f>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="40">
         <v>9.375E-2</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="6">
@@ -3729,8 +3741,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="6">
@@ -3746,8 +3758,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="6">
@@ -3774,10 +3786,10 @@
         <f t="shared" ref="H27" si="7">G27-(F27-E27)-D27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="33"/>
+      <c r="I27" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="6">
@@ -3798,14 +3810,14 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G28" s="10">
-        <v>0.71875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28:H31" si="8">G28-(F28-E28)-D28</f>
-        <v>0.31250000000000006</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="6">
@@ -3832,8 +3844,8 @@
         <f t="shared" si="8"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="6">
@@ -3860,8 +3872,8 @@
         <f t="shared" si="8"/>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="6">
@@ -3888,10 +3900,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="6">
@@ -3907,8 +3919,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="6">
@@ -3924,8 +3936,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="6">
@@ -3952,8 +3964,8 @@
         <f t="shared" ref="H34" si="9">G34-(F34-E34)-D34</f>
         <v>0.31250000000000006</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F36" s="3" t="s">
@@ -3962,7 +3974,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="5">
         <f>SUM(H4:H34)</f>
-        <v>7.4583333333333339</v>
+        <v>7.5000000000000009</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
@@ -4012,92 +4024,92 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B4:H7 B11:H14 B8:F10 H8:H10 B15:C16 E15:H16 B17:H19 B25:H26 B20:C23 B27:C27 B32:H33 B31:C31 B28:H30 B24:F24 H24">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>NETWORKDAYS.INTL($B4,$B4,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>NETWORKDAYS.INTL($B8,$B8,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>NETWORKDAYS.INTL($B9,$B9,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>NETWORKDAYS.INTL($B10,$B10,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>NETWORKDAYS.INTL($B15,$B15,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:H20">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>NETWORKDAYS.INTL($B20,$B20,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:F21 H21">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>NETWORKDAYS.INTL($B21,$B21,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:F22 H22">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>NETWORKDAYS.INTL($B22,$B22,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:F23 H23">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>NETWORKDAYS.INTL($B23,$B23,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:H27">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>NETWORKDAYS.INTL($B27,$B27,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:H34">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>NETWORKDAYS.INTL($B34,$B34,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>NETWORKDAYS.INTL($B31,$B31,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:G31">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>NETWORKDAYS.INTL($B31,$B31,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NETWORKDAYS.INTL($B22,$B22,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>NETWORKDAYS.INTL($B21,$B21,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NETWORKDAYS.INTL($B23,$B23,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NETWORKDAYS.INTL($B24,$B24,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
